--- a/Finalize logic tree/Toyota_Camry_Ac not working.xlsx
+++ b/Finalize logic tree/Toyota_Camry_Ac not working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sahil\Documents\Shreyash_files\Projects\Amberflux RaH Project\Database\Finalize logic tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25053167-7B7C-46FB-8404-F90DE312D3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80630D48-7393-46C9-B7A5-FACB500A283B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7791F33E-0B1E-4863-A196-F623A3D60E63}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>Node1</t>
   </si>
@@ -54,9 +55,6 @@
   </si>
   <si>
     <t>Model:Camry</t>
-  </si>
-  <si>
-    <t>Problem:Is the AC Switch light on when the button is pressed? (Please answer as: Yes, No)</t>
   </si>
   <si>
     <t>Possible_Problem</t>
@@ -487,7 +485,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,109 +517,109 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="288" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="360" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="288" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
